--- a/data/user_ouput.xlsx
+++ b/data/user_ouput.xlsx
@@ -60,7 +60,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>nguyen.thi.thu.huong@framgia</t>
+    <t>nguyen.thi.thu.huong@framgia.com</t>
   </si>
   <si>
     <t>Aa@123456</t>
@@ -476,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/user_ouput.xlsx
+++ b/data/user_ouput.xlsx
@@ -63,7 +63,7 @@
     <t>nguyen.thi.thu.huong@framgia.com</t>
   </si>
   <si>
-    <t>Aa@123456</t>
+    <t>Rainbow_2016</t>
   </si>
 </sst>
 </file>
